--- a/Financial_Analysis_Report.xlsx
+++ b/Financial_Analysis_Report.xlsx
@@ -17,7 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>This sheet shows how concentrated/diversified the manager is (e.g., how many stocks they hold everyday, how they allocate weights differently across stocks)</t>
+  </si>
+  <si>
+    <t>This chart shows the overall max, min, mean, and std of the weights of stocks the manager held during this time period</t>
+  </si>
   <si>
     <t>Metric</t>
   </si>
@@ -37,6 +43,18 @@
     <t>std</t>
   </si>
   <si>
+    <t>This sheet shows the net exposure (total weight) of the manager in different sectors over time.</t>
+  </si>
+  <si>
+    <t>This sheet shows the average excess exposures of the manager in different countries</t>
+  </si>
+  <si>
+    <t>This sheet shows the annual metrics of the manager.</t>
+  </si>
+  <si>
+    <t>The table below has details on annual metrics and the largest Alpha drawdowns</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
@@ -47,6 +65,15 @@
   </si>
   <si>
     <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
   </si>
 </sst>
 </file>
@@ -99,13 +126,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>545603</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>115833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -123,7 +150,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1714500"/>
+          <a:off x="609600" y="2095500"/>
           <a:ext cx="5422403" cy="4306833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -137,13 +164,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>265188</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>115833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -161,7 +188,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7429500"/>
+          <a:off x="609600" y="7048500"/>
           <a:ext cx="5751588" cy="4306833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -266,13 +293,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>509034</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>70115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -290,7 +317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="762000"/>
+          <a:off x="609600" y="6477000"/>
           <a:ext cx="9043434" cy="5404115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -588,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,39 +625,49 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.07269014185325222</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.008673631968524538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0.03302781514344098</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.07269014185325222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>0.008673631968524538</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.03302781514344098</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>0.01573992348159343</v>
       </c>
     </row>
@@ -642,68 +679,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B36:C39"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>-0.3471799799165702</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>-0.1375903175842192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>-0.9488007598451474</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>-0.3471799799165702</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>-0.1375903175842192</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>-0.9488007598451474</v>
+      <c r="C10">
+        <v>44628</v>
+      </c>
+      <c r="D10">
+        <v>44713</v>
+      </c>
+      <c r="E10">
+        <v>0.01791472418836011</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>44592</v>
+      </c>
+      <c r="D11">
+        <v>44595</v>
+      </c>
+      <c r="E11">
+        <v>0.01330248645544447</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>44616</v>
+      </c>
+      <c r="D12">
+        <v>44623</v>
+      </c>
+      <c r="E12">
+        <v>0.01081856658868917</v>
       </c>
     </row>
   </sheetData>
